--- a/Code/Results/Cases/Case_5_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9813768726311656</v>
+        <v>1.0351433820255</v>
       </c>
       <c r="D2">
-        <v>1.003828651668716</v>
+        <v>1.03813277289284</v>
       </c>
       <c r="E2">
-        <v>0.9879185201182622</v>
+        <v>1.033982385555171</v>
       </c>
       <c r="F2">
-        <v>0.9918171986185895</v>
+        <v>1.043601681888111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038172872586142</v>
+        <v>1.035898460803204</v>
       </c>
       <c r="J2">
-        <v>1.004129233186834</v>
+        <v>1.040258767711314</v>
       </c>
       <c r="K2">
-        <v>1.015234903756654</v>
+        <v>1.040921676020302</v>
       </c>
       <c r="L2">
-        <v>0.9995487753020758</v>
+        <v>1.036783169240924</v>
       </c>
       <c r="M2">
-        <v>1.003391722416735</v>
+        <v>1.046375086769898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9911134112553646</v>
+        <v>1.036899391494863</v>
       </c>
       <c r="D3">
-        <v>1.01140212197602</v>
+        <v>1.039492005783241</v>
       </c>
       <c r="E3">
-        <v>0.9963527889294281</v>
+        <v>1.035522176796944</v>
       </c>
       <c r="F3">
-        <v>1.001583080400449</v>
+        <v>1.045435936546052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04180404578562</v>
+        <v>1.036417757860136</v>
       </c>
       <c r="J3">
-        <v>1.011849300555447</v>
+        <v>1.041654133013537</v>
       </c>
       <c r="K3">
-        <v>1.021891159989933</v>
+        <v>1.042089408047707</v>
       </c>
       <c r="L3">
-        <v>1.007032550197164</v>
+        <v>1.038130106514441</v>
       </c>
       <c r="M3">
-        <v>1.01219574541287</v>
+        <v>1.048017737731556</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9971602011783041</v>
+        <v>1.038031744876469</v>
       </c>
       <c r="D4">
-        <v>1.016108499905863</v>
+        <v>1.04036810453869</v>
       </c>
       <c r="E4">
-        <v>1.001591635745978</v>
+        <v>1.036514585823094</v>
       </c>
       <c r="F4">
-        <v>1.00765666475767</v>
+        <v>1.0466194242541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044042374688356</v>
+        <v>1.036750536247008</v>
       </c>
       <c r="J4">
-        <v>1.016636829316832</v>
+        <v>1.042552890941932</v>
       </c>
       <c r="K4">
-        <v>1.026016320564198</v>
+        <v>1.04284107270681</v>
       </c>
       <c r="L4">
-        <v>1.011670889009828</v>
+        <v>1.038997249882364</v>
       </c>
       <c r="M4">
-        <v>1.01766355064497</v>
+        <v>1.049076826862692</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9996461495285908</v>
+        <v>1.038506870827355</v>
       </c>
       <c r="D5">
-        <v>1.018043907362717</v>
+        <v>1.040735612094549</v>
       </c>
       <c r="E5">
-        <v>1.003745502492167</v>
+        <v>1.036930868047741</v>
       </c>
       <c r="F5">
-        <v>1.010155611571036</v>
+        <v>1.047116167797697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04495848332981</v>
+        <v>1.036889666701384</v>
       </c>
       <c r="J5">
-        <v>1.018603322137434</v>
+        <v>1.042929753695051</v>
       </c>
       <c r="K5">
-        <v>1.027710062946708</v>
+        <v>1.043156142837921</v>
       </c>
       <c r="L5">
-        <v>1.013575460652541</v>
+        <v>1.039360755311227</v>
       </c>
       <c r="M5">
-        <v>1.019911427611556</v>
+        <v>1.049521171726077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000060382258821</v>
+        <v>1.038586593426845</v>
       </c>
       <c r="D6">
-        <v>1.018366429823474</v>
+        <v>1.04079727144843</v>
       </c>
       <c r="E6">
-        <v>1.004104402034757</v>
+        <v>1.037000709807369</v>
       </c>
       <c r="F6">
-        <v>1.010572124906362</v>
+        <v>1.047199527163981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045110889995613</v>
+        <v>1.036912982374282</v>
       </c>
       <c r="J6">
-        <v>1.018930892961742</v>
+        <v>1.042992973870695</v>
       </c>
       <c r="K6">
-        <v>1.027992158790047</v>
+        <v>1.043208990345301</v>
       </c>
       <c r="L6">
-        <v>1.013892679071492</v>
+        <v>1.039421728832572</v>
       </c>
       <c r="M6">
-        <v>1.020285986196453</v>
+        <v>1.049595727129627</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9971936334605498</v>
+        <v>1.038038097104101</v>
       </c>
       <c r="D7">
-        <v>1.016134526368743</v>
+        <v>1.040373018334957</v>
       </c>
       <c r="E7">
-        <v>1.001620601861524</v>
+        <v>1.03652015182481</v>
       </c>
       <c r="F7">
-        <v>1.007690264076833</v>
+        <v>1.046626064862761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044054711388499</v>
+        <v>1.036752398330054</v>
       </c>
       <c r="J7">
-        <v>1.01666328274377</v>
+        <v>1.042557930411111</v>
       </c>
       <c r="K7">
-        <v>1.026039107685185</v>
+        <v>1.04284528632519</v>
       </c>
       <c r="L7">
-        <v>1.011696512015516</v>
+        <v>1.039002111131765</v>
       </c>
       <c r="M7">
-        <v>1.017693781475879</v>
+        <v>1.049082767718427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9847227651237125</v>
+        <v>1.035737652975054</v>
       </c>
       <c r="D8">
-        <v>1.00643047875108</v>
+        <v>1.038592847383409</v>
       </c>
       <c r="E8">
-        <v>0.9908166448678422</v>
+        <v>1.034503590730967</v>
       </c>
       <c r="F8">
-        <v>0.9951713036376034</v>
+        <v>1.044222291686268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039424212822745</v>
+        <v>1.036074634761056</v>
       </c>
       <c r="J8">
-        <v>1.006783603640754</v>
+        <v>1.040731203718724</v>
       </c>
       <c r="K8">
-        <v>1.01752404400287</v>
+        <v>1.041317139139896</v>
       </c>
       <c r="L8">
-        <v>1.002122464426897</v>
+        <v>1.037239296460396</v>
       </c>
       <c r="M8">
-        <v>1.006417082416437</v>
+        <v>1.046931028937029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9605680355864082</v>
+        <v>1.031653242701108</v>
       </c>
       <c r="D9">
-        <v>0.9876691553036184</v>
+        <v>1.035429192271198</v>
       </c>
       <c r="E9">
-        <v>0.9699040125953126</v>
+        <v>1.030919242870373</v>
       </c>
       <c r="F9">
-        <v>0.9709989126407992</v>
+        <v>1.039959668018877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030320279480426</v>
+        <v>1.0348552105366</v>
       </c>
       <c r="J9">
-        <v>0.9875944286546284</v>
+        <v>1.037479906027776</v>
       </c>
       <c r="K9">
-        <v>1.000965510982602</v>
+        <v>1.038593633222114</v>
       </c>
       <c r="L9">
-        <v>0.9835050087511834</v>
+        <v>1.034098484299864</v>
       </c>
       <c r="M9">
-        <v>0.9845807156432279</v>
+        <v>1.04310938272528</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9425956307449213</v>
+        <v>1.028908446275614</v>
       </c>
       <c r="D10">
-        <v>0.9737502208052978</v>
+        <v>1.033301239726247</v>
       </c>
       <c r="E10">
-        <v>0.9543647147827129</v>
+        <v>1.028507851288904</v>
       </c>
       <c r="F10">
-        <v>0.9530725579955334</v>
+        <v>1.037098664444674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023460630071605</v>
+        <v>1.034024961030667</v>
       </c>
       <c r="J10">
-        <v>0.973287644813401</v>
+        <v>1.035289638786458</v>
       </c>
       <c r="K10">
-        <v>0.9886101682336457</v>
+        <v>1.036756508445603</v>
       </c>
       <c r="L10">
-        <v>0.9696098914864322</v>
+        <v>1.031980433748074</v>
       </c>
       <c r="M10">
-        <v>0.9683441473302564</v>
+        <v>1.040540342207646</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9342523385004087</v>
+        <v>1.027714467743329</v>
       </c>
       <c r="D11">
-        <v>0.9673030574649224</v>
+        <v>1.032375150395713</v>
       </c>
       <c r="E11">
-        <v>0.9471592483328494</v>
+        <v>1.027458280989573</v>
       </c>
       <c r="F11">
-        <v>0.9447667776628382</v>
+        <v>1.035854984633389</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020257773013645</v>
+        <v>1.03366125773415</v>
       </c>
       <c r="J11">
-        <v>0.9666413442120813</v>
+        <v>1.034335618579826</v>
       </c>
       <c r="K11">
-        <v>0.9828691049239687</v>
+        <v>1.035955744095016</v>
       </c>
       <c r="L11">
-        <v>0.9631515466959751</v>
+        <v>1.031057341669089</v>
       </c>
       <c r="M11">
-        <v>0.9608113069586498</v>
+        <v>1.039422625868096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9310561551809045</v>
+        <v>1.027270126935029</v>
       </c>
       <c r="D12">
-        <v>0.9648359116648927</v>
+        <v>1.032030441038019</v>
       </c>
       <c r="E12">
-        <v>0.9444005557777709</v>
+        <v>1.027067588962825</v>
       </c>
       <c r="F12">
-        <v>0.9415876013296198</v>
+        <v>1.035392275335609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019028255364166</v>
+        <v>1.033525523069556</v>
       </c>
       <c r="J12">
-        <v>0.964094784061941</v>
+        <v>1.033980389742595</v>
       </c>
       <c r="K12">
-        <v>0.9806692991001577</v>
+        <v>1.035657496034355</v>
       </c>
       <c r="L12">
-        <v>0.9606765329326949</v>
+        <v>1.030713549438906</v>
       </c>
       <c r="M12">
-        <v>0.957926506908242</v>
+        <v>1.039006637836861</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9317463795644939</v>
+        <v>1.027365478115906</v>
       </c>
       <c r="D13">
-        <v>0.9653685696064317</v>
+        <v>1.032104415151008</v>
       </c>
       <c r="E13">
-        <v>0.9449962238740166</v>
+        <v>1.027151431838195</v>
       </c>
       <c r="F13">
-        <v>0.9422740304019959</v>
+        <v>1.035491562420556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019293884182646</v>
+        <v>1.033554667666212</v>
       </c>
       <c r="J13">
-        <v>0.9646447372972844</v>
+        <v>1.034056626904436</v>
       </c>
       <c r="K13">
-        <v>0.9811443697471339</v>
+        <v>1.035721508097532</v>
       </c>
       <c r="L13">
-        <v>0.9612110557467602</v>
+        <v>1.030787335740194</v>
       </c>
       <c r="M13">
-        <v>0.9585494422212975</v>
+        <v>1.039095906063795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9339902065567053</v>
+        <v>1.027677755746474</v>
       </c>
       <c r="D14">
-        <v>0.9671006599279492</v>
+        <v>1.032346671367997</v>
       </c>
       <c r="E14">
-        <v>0.9469329619885656</v>
+        <v>1.027426003414687</v>
       </c>
       <c r="F14">
-        <v>0.9445059859222573</v>
+        <v>1.035816752398502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020156985496471</v>
+        <v>1.03365005094846</v>
       </c>
       <c r="J14">
-        <v>0.9664324984025974</v>
+        <v>1.034306272973778</v>
       </c>
       <c r="K14">
-        <v>0.9826886979376782</v>
+        <v>1.035931107402535</v>
       </c>
       <c r="L14">
-        <v>0.9629485777920667</v>
+        <v>1.031028942467034</v>
       </c>
       <c r="M14">
-        <v>0.9605746930068416</v>
+        <v>1.039388256988108</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9353594015959291</v>
+        <v>1.027870047761477</v>
       </c>
       <c r="D15">
-        <v>0.9681579547179294</v>
+        <v>1.032495837702088</v>
       </c>
       <c r="E15">
-        <v>0.9481149918608227</v>
+        <v>1.027595064782062</v>
       </c>
       <c r="F15">
-        <v>0.9458682886496048</v>
+        <v>1.036017012432532</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020683327523775</v>
+        <v>1.033708734809939</v>
       </c>
       <c r="J15">
-        <v>0.9675233463495454</v>
+        <v>1.034459973196715</v>
       </c>
       <c r="K15">
-        <v>0.9836310005873201</v>
+        <v>1.036060140841229</v>
       </c>
       <c r="L15">
-        <v>0.9640087105298606</v>
+        <v>1.031177682562599</v>
       </c>
       <c r="M15">
-        <v>0.9618106380646544</v>
+        <v>1.039568274947285</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.943136495131476</v>
+        <v>1.02898756961603</v>
       </c>
       <c r="D16">
-        <v>0.9741685001914886</v>
+        <v>1.033362601378586</v>
       </c>
       <c r="E16">
-        <v>0.9548320164842465</v>
+        <v>1.028577391853306</v>
       </c>
       <c r="F16">
-        <v>0.9536113376509309</v>
+        <v>1.037181099303228</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023667899199991</v>
+        <v>1.034049009647655</v>
       </c>
       <c r="J16">
-        <v>0.9737184222214991</v>
+        <v>1.035352833949888</v>
       </c>
       <c r="K16">
-        <v>0.9889822545353913</v>
+        <v>1.036809540019815</v>
       </c>
       <c r="L16">
-        <v>0.9700284211815231</v>
+        <v>1.032041569098321</v>
       </c>
       <c r="M16">
-        <v>0.9688325849425258</v>
+        <v>1.040614407771099</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9478564338558171</v>
+        <v>1.029687082532649</v>
       </c>
       <c r="D17">
-        <v>0.9778203320317065</v>
+        <v>1.033905036865193</v>
       </c>
       <c r="E17">
-        <v>0.958910957884851</v>
+        <v>1.029192113836581</v>
       </c>
       <c r="F17">
-        <v>0.9583148995383296</v>
+        <v>1.037909986499784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025474638391617</v>
+        <v>1.034261324983687</v>
       </c>
       <c r="J17">
-        <v>0.9774771705145595</v>
+        <v>1.03591138400078</v>
       </c>
       <c r="K17">
-        <v>0.9922287579193456</v>
+        <v>1.037278194464188</v>
       </c>
       <c r="L17">
-        <v>0.9736799385196149</v>
+        <v>1.032581852728081</v>
       </c>
       <c r="M17">
-        <v>0.9730955491175146</v>
+        <v>1.041269183963482</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9505563509877576</v>
+        <v>1.030094571008381</v>
       </c>
       <c r="D18">
-        <v>0.9799105621671729</v>
+        <v>1.034220980679786</v>
       </c>
       <c r="E18">
-        <v>0.9612449517331813</v>
+        <v>1.029550149026859</v>
       </c>
       <c r="F18">
-        <v>0.9610069255492909</v>
+        <v>1.038334668041715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026506417786</v>
+        <v>1.0343847602621</v>
       </c>
       <c r="J18">
-        <v>0.9796268127861608</v>
+        <v>1.03623663583355</v>
       </c>
       <c r="K18">
-        <v>0.9940853162010832</v>
+        <v>1.037551044570244</v>
       </c>
       <c r="L18">
-        <v>0.975767949329797</v>
+        <v>1.032896417055785</v>
       </c>
       <c r="M18">
-        <v>0.9755344783278754</v>
+        <v>1.041650593459926</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9514682837024278</v>
+        <v>1.030233425598496</v>
       </c>
       <c r="D19">
-        <v>0.9806167717640649</v>
+        <v>1.034328633591617</v>
       </c>
       <c r="E19">
-        <v>0.9620334056482481</v>
+        <v>1.029672141888436</v>
       </c>
       <c r="F19">
-        <v>0.9619164378825296</v>
+        <v>1.038479395121428</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026854617833265</v>
+        <v>1.034426780107138</v>
       </c>
       <c r="J19">
-        <v>0.980352800203518</v>
+        <v>1.036347447114953</v>
       </c>
       <c r="K19">
-        <v>0.9947122971702101</v>
+        <v>1.037643993693669</v>
       </c>
       <c r="L19">
-        <v>0.9764730698459702</v>
+        <v>1.033003578577144</v>
       </c>
       <c r="M19">
-        <v>0.9763583232320812</v>
+        <v>1.041780558316517</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.947355609632038</v>
+        <v>1.029612085946402</v>
       </c>
       <c r="D20">
-        <v>0.9774327045228413</v>
+        <v>1.033846885298142</v>
       </c>
       <c r="E20">
-        <v>0.9584780690920411</v>
+        <v>1.029126214098114</v>
       </c>
       <c r="F20">
-        <v>0.9578156577734627</v>
+        <v>1.037831832171823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025283106243928</v>
+        <v>1.0342385874722</v>
       </c>
       <c r="J20">
-        <v>0.9770783819816651</v>
+        <v>1.035851512956866</v>
       </c>
       <c r="K20">
-        <v>0.9918843293531432</v>
+        <v>1.037227964946053</v>
       </c>
       <c r="L20">
-        <v>0.9732925584865165</v>
+        <v>1.032523944913236</v>
       </c>
       <c r="M20">
-        <v>0.9726431692899402</v>
+        <v>1.041198985620008</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9333322537068666</v>
+        <v>1.027585821254375</v>
       </c>
       <c r="D21">
-        <v>0.9665926853211103</v>
+        <v>1.032275352920488</v>
       </c>
       <c r="E21">
-        <v>0.9463650089435567</v>
+        <v>1.027345172140365</v>
       </c>
       <c r="F21">
-        <v>0.9438514400472545</v>
+        <v>1.035721012980363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019903968048631</v>
+        <v>1.033621980656174</v>
       </c>
       <c r="J21">
-        <v>0.9659082874896332</v>
+        <v>1.034232782411811</v>
       </c>
       <c r="K21">
-        <v>0.982235868478668</v>
+        <v>1.035869408077715</v>
       </c>
       <c r="L21">
-        <v>0.9624391107027443</v>
+        <v>1.030957820712593</v>
       </c>
       <c r="M21">
-        <v>0.9599808059092666</v>
+        <v>1.039302189693359</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9239446787053252</v>
+        <v>1.026306933272759</v>
       </c>
       <c r="D22">
-        <v>0.9593521179556883</v>
+        <v>1.031283102432817</v>
       </c>
       <c r="E22">
-        <v>0.9382659473594892</v>
+        <v>1.026220519720394</v>
       </c>
       <c r="F22">
-        <v>0.9345191330939323</v>
+        <v>1.034389499042845</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016288128508736</v>
+        <v>1.033230593940127</v>
       </c>
       <c r="J22">
-        <v>0.9584281570939893</v>
+        <v>1.033210018190493</v>
       </c>
       <c r="K22">
-        <v>0.9757742390299052</v>
+        <v>1.035010543635081</v>
       </c>
       <c r="L22">
-        <v>0.9551682747866669</v>
+        <v>1.029967834329488</v>
       </c>
       <c r="M22">
-        <v>0.9515098302743726</v>
+        <v>1.038104852879948</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9289803809384376</v>
+        <v>1.026985367794485</v>
       </c>
       <c r="D23">
-        <v>0.9632344353510893</v>
+        <v>1.031809513673017</v>
       </c>
       <c r="E23">
-        <v>0.9426094171262889</v>
+        <v>1.026817184939047</v>
       </c>
       <c r="F23">
-        <v>0.9395236465146579</v>
+        <v>1.035095780677984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018229050108231</v>
+        <v>1.03343842904051</v>
       </c>
       <c r="J23">
-        <v>0.9624408125996138</v>
+        <v>1.033752685564648</v>
       </c>
       <c r="K23">
-        <v>0.9792405311321088</v>
+        <v>1.035466293382779</v>
       </c>
       <c r="L23">
-        <v>0.9590689015641515</v>
+        <v>1.030493153806663</v>
       </c>
       <c r="M23">
-        <v>0.9560532501849182</v>
+        <v>1.038740040867492</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9475820738295759</v>
+        <v>1.029645975298942</v>
       </c>
       <c r="D24">
-        <v>0.9776079790900662</v>
+        <v>1.033873162877171</v>
       </c>
       <c r="E24">
-        <v>0.9586738117554288</v>
+        <v>1.029155992964968</v>
       </c>
       <c r="F24">
-        <v>0.9580414018240986</v>
+        <v>1.037867148187955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025369719192969</v>
+        <v>1.034248862825131</v>
       </c>
       <c r="J24">
-        <v>0.9772587087971562</v>
+        <v>1.035878567775574</v>
       </c>
       <c r="K24">
-        <v>0.9920400757323897</v>
+        <v>1.037250663072848</v>
       </c>
       <c r="L24">
-        <v>0.9734677274857989</v>
+        <v>1.032550112735214</v>
       </c>
       <c r="M24">
-        <v>0.9728477264859439</v>
+        <v>1.04123070680629</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9671081209861582</v>
+        <v>1.032712924612769</v>
       </c>
       <c r="D25">
-        <v>0.9927434836090663</v>
+        <v>1.036250332009258</v>
       </c>
       <c r="E25">
-        <v>0.9755637100479797</v>
+        <v>1.031849652369432</v>
       </c>
       <c r="F25">
-        <v>0.977534461444131</v>
+        <v>1.041064963985421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032800129248395</v>
+        <v>1.035173479614524</v>
       </c>
       <c r="J25">
-        <v>0.9927954975335893</v>
+        <v>1.038324379774167</v>
       </c>
       <c r="K25">
-        <v>1.005455501902972</v>
+        <v>1.039301446699599</v>
       </c>
       <c r="L25">
-        <v>0.9885535951274047</v>
+        <v>1.034914648445889</v>
       </c>
       <c r="M25">
-        <v>0.9904918335802021</v>
+        <v>1.04410103839563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0351433820255</v>
+        <v>0.9813768726311651</v>
       </c>
       <c r="D2">
-        <v>1.03813277289284</v>
+        <v>1.003828651668715</v>
       </c>
       <c r="E2">
-        <v>1.033982385555171</v>
+        <v>0.9879185201182615</v>
       </c>
       <c r="F2">
-        <v>1.043601681888111</v>
+        <v>0.9918171986185893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035898460803204</v>
+        <v>1.038172872586142</v>
       </c>
       <c r="J2">
-        <v>1.040258767711314</v>
+        <v>1.004129233186834</v>
       </c>
       <c r="K2">
-        <v>1.040921676020302</v>
+        <v>1.015234903756653</v>
       </c>
       <c r="L2">
-        <v>1.036783169240924</v>
+        <v>0.9995487753020752</v>
       </c>
       <c r="M2">
-        <v>1.046375086769898</v>
+        <v>1.003391722416735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036899391494863</v>
+        <v>0.9911134112553642</v>
       </c>
       <c r="D3">
-        <v>1.039492005783241</v>
+        <v>1.011402121976019</v>
       </c>
       <c r="E3">
-        <v>1.035522176796944</v>
+        <v>0.9963527889294276</v>
       </c>
       <c r="F3">
-        <v>1.045435936546052</v>
+        <v>1.001583080400449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036417757860136</v>
+        <v>1.04180404578562</v>
       </c>
       <c r="J3">
-        <v>1.041654133013537</v>
+        <v>1.011849300555447</v>
       </c>
       <c r="K3">
-        <v>1.042089408047707</v>
+        <v>1.021891159989933</v>
       </c>
       <c r="L3">
-        <v>1.038130106514441</v>
+        <v>1.007032550197163</v>
       </c>
       <c r="M3">
-        <v>1.048017737731556</v>
+        <v>1.01219574541287</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038031744876469</v>
+        <v>0.9971602011783037</v>
       </c>
       <c r="D4">
-        <v>1.04036810453869</v>
+        <v>1.016108499905862</v>
       </c>
       <c r="E4">
-        <v>1.036514585823094</v>
+        <v>1.001591635745978</v>
       </c>
       <c r="F4">
-        <v>1.0466194242541</v>
+        <v>1.00765666475767</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036750536247008</v>
+        <v>1.044042374688356</v>
       </c>
       <c r="J4">
-        <v>1.042552890941932</v>
+        <v>1.016636829316831</v>
       </c>
       <c r="K4">
-        <v>1.04284107270681</v>
+        <v>1.026016320564197</v>
       </c>
       <c r="L4">
-        <v>1.038997249882364</v>
+        <v>1.011670889009828</v>
       </c>
       <c r="M4">
-        <v>1.049076826862692</v>
+        <v>1.017663550644969</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038506870827355</v>
+        <v>0.9996461495285914</v>
       </c>
       <c r="D5">
-        <v>1.040735612094549</v>
+        <v>1.018043907362718</v>
       </c>
       <c r="E5">
-        <v>1.036930868047741</v>
+        <v>1.003745502492167</v>
       </c>
       <c r="F5">
-        <v>1.047116167797697</v>
+        <v>1.010155611571036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036889666701384</v>
+        <v>1.044958483329811</v>
       </c>
       <c r="J5">
-        <v>1.042929753695051</v>
+        <v>1.018603322137435</v>
       </c>
       <c r="K5">
-        <v>1.043156142837921</v>
+        <v>1.027710062946708</v>
       </c>
       <c r="L5">
-        <v>1.039360755311227</v>
+        <v>1.013575460652542</v>
       </c>
       <c r="M5">
-        <v>1.049521171726077</v>
+        <v>1.019911427611557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038586593426845</v>
+        <v>1.00006038225882</v>
       </c>
       <c r="D6">
-        <v>1.04079727144843</v>
+        <v>1.018366429823474</v>
       </c>
       <c r="E6">
-        <v>1.037000709807369</v>
+        <v>1.004104402034758</v>
       </c>
       <c r="F6">
-        <v>1.047199527163981</v>
+        <v>1.010572124906362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036912982374282</v>
+        <v>1.045110889995613</v>
       </c>
       <c r="J6">
-        <v>1.042992973870695</v>
+        <v>1.018930892961742</v>
       </c>
       <c r="K6">
-        <v>1.043208990345301</v>
+        <v>1.027992158790047</v>
       </c>
       <c r="L6">
-        <v>1.039421728832572</v>
+        <v>1.013892679071492</v>
       </c>
       <c r="M6">
-        <v>1.049595727129627</v>
+        <v>1.020285986196453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038038097104101</v>
+        <v>0.9971936334605511</v>
       </c>
       <c r="D7">
-        <v>1.040373018334957</v>
+        <v>1.016134526368745</v>
       </c>
       <c r="E7">
-        <v>1.03652015182481</v>
+        <v>1.001620601861525</v>
       </c>
       <c r="F7">
-        <v>1.046626064862761</v>
+        <v>1.007690264076833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036752398330054</v>
+        <v>1.0440547113885</v>
       </c>
       <c r="J7">
-        <v>1.042557930411111</v>
+        <v>1.016663282743771</v>
       </c>
       <c r="K7">
-        <v>1.04284528632519</v>
+        <v>1.026039107685186</v>
       </c>
       <c r="L7">
-        <v>1.039002111131765</v>
+        <v>1.011696512015517</v>
       </c>
       <c r="M7">
-        <v>1.049082767718427</v>
+        <v>1.01769378147588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035737652975054</v>
+        <v>0.9847227651237145</v>
       </c>
       <c r="D8">
-        <v>1.038592847383409</v>
+        <v>1.006430478751082</v>
       </c>
       <c r="E8">
-        <v>1.034503590730967</v>
+        <v>0.990816644867844</v>
       </c>
       <c r="F8">
-        <v>1.044222291686268</v>
+        <v>0.9951713036376052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036074634761056</v>
+        <v>1.039424212822746</v>
       </c>
       <c r="J8">
-        <v>1.040731203718724</v>
+        <v>1.006783603640756</v>
       </c>
       <c r="K8">
-        <v>1.041317139139896</v>
+        <v>1.017524044002872</v>
       </c>
       <c r="L8">
-        <v>1.037239296460396</v>
+        <v>1.002122464426899</v>
       </c>
       <c r="M8">
-        <v>1.046931028937029</v>
+        <v>1.006417082416439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031653242701108</v>
+        <v>0.960568035586408</v>
       </c>
       <c r="D9">
-        <v>1.035429192271198</v>
+        <v>0.9876691553036181</v>
       </c>
       <c r="E9">
-        <v>1.030919242870373</v>
+        <v>0.9699040125953121</v>
       </c>
       <c r="F9">
-        <v>1.039959668018877</v>
+        <v>0.9709989126407986</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0348552105366</v>
+        <v>1.030320279480426</v>
       </c>
       <c r="J9">
-        <v>1.037479906027776</v>
+        <v>0.9875944286546283</v>
       </c>
       <c r="K9">
-        <v>1.038593633222114</v>
+        <v>1.000965510982601</v>
       </c>
       <c r="L9">
-        <v>1.034098484299864</v>
+        <v>0.983505008751183</v>
       </c>
       <c r="M9">
-        <v>1.04310938272528</v>
+        <v>0.9845807156432272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028908446275614</v>
+        <v>0.942595630744922</v>
       </c>
       <c r="D10">
-        <v>1.033301239726247</v>
+        <v>0.9737502208052985</v>
       </c>
       <c r="E10">
-        <v>1.028507851288904</v>
+        <v>0.9543647147827133</v>
       </c>
       <c r="F10">
-        <v>1.037098664444674</v>
+        <v>0.9530725579955334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034024961030667</v>
+        <v>1.023460630071605</v>
       </c>
       <c r="J10">
-        <v>1.035289638786458</v>
+        <v>0.9732876448134016</v>
       </c>
       <c r="K10">
-        <v>1.036756508445603</v>
+        <v>0.9886101682336461</v>
       </c>
       <c r="L10">
-        <v>1.031980433748074</v>
+        <v>0.9696098914864324</v>
       </c>
       <c r="M10">
-        <v>1.040540342207646</v>
+        <v>0.9683441473302565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027714467743329</v>
+        <v>0.9342523385004077</v>
       </c>
       <c r="D11">
-        <v>1.032375150395713</v>
+        <v>0.9673030574649217</v>
       </c>
       <c r="E11">
-        <v>1.027458280989573</v>
+        <v>0.9471592483328487</v>
       </c>
       <c r="F11">
-        <v>1.035854984633389</v>
+        <v>0.9447667776628373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03366125773415</v>
+        <v>1.020257773013644</v>
       </c>
       <c r="J11">
-        <v>1.034335618579826</v>
+        <v>0.9666413442120804</v>
       </c>
       <c r="K11">
-        <v>1.035955744095016</v>
+        <v>0.9828691049239681</v>
       </c>
       <c r="L11">
-        <v>1.031057341669089</v>
+        <v>0.9631515466959745</v>
       </c>
       <c r="M11">
-        <v>1.039422625868096</v>
+        <v>0.9608113069586487</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027270126935029</v>
+        <v>0.9310561551809052</v>
       </c>
       <c r="D12">
-        <v>1.032030441038019</v>
+        <v>0.9648359116648934</v>
       </c>
       <c r="E12">
-        <v>1.027067588962825</v>
+        <v>0.9444005557777715</v>
       </c>
       <c r="F12">
-        <v>1.035392275335609</v>
+        <v>0.9415876013296203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033525523069556</v>
+        <v>1.019028255364166</v>
       </c>
       <c r="J12">
-        <v>1.033980389742595</v>
+        <v>0.9640947840619417</v>
       </c>
       <c r="K12">
-        <v>1.035657496034355</v>
+        <v>0.9806692991001581</v>
       </c>
       <c r="L12">
-        <v>1.030713549438906</v>
+        <v>0.9606765329326954</v>
       </c>
       <c r="M12">
-        <v>1.039006637836861</v>
+        <v>0.9579265069082424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027365478115906</v>
+        <v>0.9317463795644938</v>
       </c>
       <c r="D13">
-        <v>1.032104415151008</v>
+        <v>0.9653685696064316</v>
       </c>
       <c r="E13">
-        <v>1.027151431838195</v>
+        <v>0.9449962238740162</v>
       </c>
       <c r="F13">
-        <v>1.035491562420556</v>
+        <v>0.942274030401996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033554667666212</v>
+        <v>1.019293884182646</v>
       </c>
       <c r="J13">
-        <v>1.034056626904436</v>
+        <v>0.9646447372972843</v>
       </c>
       <c r="K13">
-        <v>1.035721508097532</v>
+        <v>0.9811443697471338</v>
       </c>
       <c r="L13">
-        <v>1.030787335740194</v>
+        <v>0.9612110557467599</v>
       </c>
       <c r="M13">
-        <v>1.039095906063795</v>
+        <v>0.9585494422212977</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027677755746474</v>
+        <v>0.9339902065567062</v>
       </c>
       <c r="D14">
-        <v>1.032346671367997</v>
+        <v>0.9671006599279502</v>
       </c>
       <c r="E14">
-        <v>1.027426003414687</v>
+        <v>0.946932961988566</v>
       </c>
       <c r="F14">
-        <v>1.035816752398502</v>
+        <v>0.944505985922258</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03365005094846</v>
+        <v>1.020156985496471</v>
       </c>
       <c r="J14">
-        <v>1.034306272973778</v>
+        <v>0.9664324984025983</v>
       </c>
       <c r="K14">
-        <v>1.035931107402535</v>
+        <v>0.982688697937679</v>
       </c>
       <c r="L14">
-        <v>1.031028942467034</v>
+        <v>0.9629485777920674</v>
       </c>
       <c r="M14">
-        <v>1.039388256988108</v>
+        <v>0.9605746930068421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027870047761477</v>
+        <v>0.935359401595926</v>
       </c>
       <c r="D15">
-        <v>1.032495837702088</v>
+        <v>0.968157954717927</v>
       </c>
       <c r="E15">
-        <v>1.027595064782062</v>
+        <v>0.9481149918608198</v>
       </c>
       <c r="F15">
-        <v>1.036017012432532</v>
+        <v>0.9458682886496028</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033708734809939</v>
+        <v>1.020683327523774</v>
       </c>
       <c r="J15">
-        <v>1.034459973196715</v>
+        <v>0.9675233463495427</v>
       </c>
       <c r="K15">
-        <v>1.036060140841229</v>
+        <v>0.9836310005873176</v>
       </c>
       <c r="L15">
-        <v>1.031177682562599</v>
+        <v>0.9640087105298578</v>
       </c>
       <c r="M15">
-        <v>1.039568274947285</v>
+        <v>0.9618106380646526</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02898756961603</v>
+        <v>0.9431364951314749</v>
       </c>
       <c r="D16">
-        <v>1.033362601378586</v>
+        <v>0.9741685001914879</v>
       </c>
       <c r="E16">
-        <v>1.028577391853306</v>
+        <v>0.9548320164842452</v>
       </c>
       <c r="F16">
-        <v>1.037181099303228</v>
+        <v>0.9536113376509298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034049009647655</v>
+        <v>1.02366789919999</v>
       </c>
       <c r="J16">
-        <v>1.035352833949888</v>
+        <v>0.9737184222214978</v>
       </c>
       <c r="K16">
-        <v>1.036809540019815</v>
+        <v>0.9889822545353907</v>
       </c>
       <c r="L16">
-        <v>1.032041569098321</v>
+        <v>0.9700284211815221</v>
       </c>
       <c r="M16">
-        <v>1.040614407771099</v>
+        <v>0.9688325849425248</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029687082532649</v>
+        <v>0.947856433855817</v>
       </c>
       <c r="D17">
-        <v>1.033905036865193</v>
+        <v>0.9778203320317062</v>
       </c>
       <c r="E17">
-        <v>1.029192113836581</v>
+        <v>0.9589109578848508</v>
       </c>
       <c r="F17">
-        <v>1.037909986499784</v>
+        <v>0.9583148995383298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034261324983687</v>
+        <v>1.025474638391616</v>
       </c>
       <c r="J17">
-        <v>1.03591138400078</v>
+        <v>0.9774771705145594</v>
       </c>
       <c r="K17">
-        <v>1.037278194464188</v>
+        <v>0.9922287579193454</v>
       </c>
       <c r="L17">
-        <v>1.032581852728081</v>
+        <v>0.9736799385196147</v>
       </c>
       <c r="M17">
-        <v>1.041269183963482</v>
+        <v>0.9730955491175146</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030094571008381</v>
+        <v>0.9505563509877556</v>
       </c>
       <c r="D18">
-        <v>1.034220980679786</v>
+        <v>0.979910562167171</v>
       </c>
       <c r="E18">
-        <v>1.029550149026859</v>
+        <v>0.9612449517331791</v>
       </c>
       <c r="F18">
-        <v>1.038334668041715</v>
+        <v>0.961006925549289</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0343847602621</v>
+        <v>1.026506417785999</v>
       </c>
       <c r="J18">
-        <v>1.03623663583355</v>
+        <v>0.9796268127861587</v>
       </c>
       <c r="K18">
-        <v>1.037551044570244</v>
+        <v>0.9940853162010811</v>
       </c>
       <c r="L18">
-        <v>1.032896417055785</v>
+        <v>0.9757679493297949</v>
       </c>
       <c r="M18">
-        <v>1.041650593459926</v>
+        <v>0.9755344783278735</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030233425598496</v>
+        <v>0.9514682837024253</v>
       </c>
       <c r="D19">
-        <v>1.034328633591617</v>
+        <v>0.980616771764063</v>
       </c>
       <c r="E19">
-        <v>1.029672141888436</v>
+        <v>0.9620334056482464</v>
       </c>
       <c r="F19">
-        <v>1.038479395121428</v>
+        <v>0.9619164378825277</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034426780107138</v>
+        <v>1.026854617833264</v>
       </c>
       <c r="J19">
-        <v>1.036347447114953</v>
+        <v>0.9803528002035157</v>
       </c>
       <c r="K19">
-        <v>1.037643993693669</v>
+        <v>0.994712297170208</v>
       </c>
       <c r="L19">
-        <v>1.033003578577144</v>
+        <v>0.9764730698459686</v>
       </c>
       <c r="M19">
-        <v>1.041780558316517</v>
+        <v>0.9763583232320793</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029612085946402</v>
+        <v>0.9473556096320372</v>
       </c>
       <c r="D20">
-        <v>1.033846885298142</v>
+        <v>0.9774327045228405</v>
       </c>
       <c r="E20">
-        <v>1.029126214098114</v>
+        <v>0.9584780690920401</v>
       </c>
       <c r="F20">
-        <v>1.037831832171823</v>
+        <v>0.9578156577734622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0342385874722</v>
+        <v>1.025283106243927</v>
       </c>
       <c r="J20">
-        <v>1.035851512956866</v>
+        <v>0.9770783819816641</v>
       </c>
       <c r="K20">
-        <v>1.037227964946053</v>
+        <v>0.9918843293531425</v>
       </c>
       <c r="L20">
-        <v>1.032523944913236</v>
+        <v>0.9732925584865153</v>
       </c>
       <c r="M20">
-        <v>1.041198985620008</v>
+        <v>0.9726431692899398</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027585821254375</v>
+        <v>0.933332253706866</v>
       </c>
       <c r="D21">
-        <v>1.032275352920488</v>
+        <v>0.9665926853211098</v>
       </c>
       <c r="E21">
-        <v>1.027345172140365</v>
+        <v>0.9463650089435565</v>
       </c>
       <c r="F21">
-        <v>1.035721012980363</v>
+        <v>0.9438514400472541</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033621980656174</v>
+        <v>1.019903968048631</v>
       </c>
       <c r="J21">
-        <v>1.034232782411811</v>
+        <v>0.9659082874896325</v>
       </c>
       <c r="K21">
-        <v>1.035869408077715</v>
+        <v>0.9822358684786672</v>
       </c>
       <c r="L21">
-        <v>1.030957820712593</v>
+        <v>0.9624391107027439</v>
       </c>
       <c r="M21">
-        <v>1.039302189693359</v>
+        <v>0.9599808059092663</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026306933272759</v>
+        <v>0.9239446787053226</v>
       </c>
       <c r="D22">
-        <v>1.031283102432817</v>
+        <v>0.959352117955686</v>
       </c>
       <c r="E22">
-        <v>1.026220519720394</v>
+        <v>0.9382659473594864</v>
       </c>
       <c r="F22">
-        <v>1.034389499042845</v>
+        <v>0.9345191330939296</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033230593940127</v>
+        <v>1.016288128508734</v>
       </c>
       <c r="J22">
-        <v>1.033210018190493</v>
+        <v>0.9584281570939867</v>
       </c>
       <c r="K22">
-        <v>1.035010543635081</v>
+        <v>0.9757742390299029</v>
       </c>
       <c r="L22">
-        <v>1.029967834329488</v>
+        <v>0.955168274786664</v>
       </c>
       <c r="M22">
-        <v>1.038104852879948</v>
+        <v>0.9515098302743698</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026985367794485</v>
+        <v>0.9289803809384364</v>
       </c>
       <c r="D23">
-        <v>1.031809513673017</v>
+        <v>0.9632344353510882</v>
       </c>
       <c r="E23">
-        <v>1.026817184939047</v>
+        <v>0.9426094171262873</v>
       </c>
       <c r="F23">
-        <v>1.035095780677984</v>
+        <v>0.9395236465146565</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03343842904051</v>
+        <v>1.01822905010823</v>
       </c>
       <c r="J23">
-        <v>1.033752685564648</v>
+        <v>0.9624408125996124</v>
       </c>
       <c r="K23">
-        <v>1.035466293382779</v>
+        <v>0.9792405311321076</v>
       </c>
       <c r="L23">
-        <v>1.030493153806663</v>
+        <v>0.95906890156415</v>
       </c>
       <c r="M23">
-        <v>1.038740040867492</v>
+        <v>0.9560532501849166</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029645975298942</v>
+        <v>0.9475820738295767</v>
       </c>
       <c r="D24">
-        <v>1.033873162877171</v>
+        <v>0.9776079790900672</v>
       </c>
       <c r="E24">
-        <v>1.029155992964968</v>
+        <v>0.9586738117554292</v>
       </c>
       <c r="F24">
-        <v>1.037867148187955</v>
+        <v>0.958041401824099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034248862825131</v>
+        <v>1.025369719192969</v>
       </c>
       <c r="J24">
-        <v>1.035878567775574</v>
+        <v>0.9772587087971569</v>
       </c>
       <c r="K24">
-        <v>1.037250663072848</v>
+        <v>0.9920400757323907</v>
       </c>
       <c r="L24">
-        <v>1.032550112735214</v>
+        <v>0.973467727485799</v>
       </c>
       <c r="M24">
-        <v>1.04123070680629</v>
+        <v>0.9728477264859441</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032712924612769</v>
+        <v>0.9671081209861591</v>
       </c>
       <c r="D25">
-        <v>1.036250332009258</v>
+        <v>0.9927434836090677</v>
       </c>
       <c r="E25">
-        <v>1.031849652369432</v>
+        <v>0.9755637100479808</v>
       </c>
       <c r="F25">
-        <v>1.041064963985421</v>
+        <v>0.9775344614441324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035173479614524</v>
+        <v>1.032800129248395</v>
       </c>
       <c r="J25">
-        <v>1.038324379774167</v>
+        <v>0.9927954975335903</v>
       </c>
       <c r="K25">
-        <v>1.039301446699599</v>
+        <v>1.005455501902973</v>
       </c>
       <c r="L25">
-        <v>1.034914648445889</v>
+        <v>0.9885535951274055</v>
       </c>
       <c r="M25">
-        <v>1.04410103839563</v>
+        <v>0.9904918335802033</v>
       </c>
     </row>
   </sheetData>
